--- a/Ejercicio 13 IV unidad 2022 Estudiantes.xlsx
+++ b/Ejercicio 13 IV unidad 2022 Estudiantes.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SISTEMAS2-06\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEEC087-C410-4DE4-B07F-530CEBEC7F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81D7209-EEB8-4350-93F9-52E765062916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio No. 13 CF" sheetId="14" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="16" r:id="rId2"/>
+    <sheet name="Ejercicio No. 13 SF (2)" sheetId="17" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="76">
   <si>
     <t>TASA DE INTERES</t>
   </si>
@@ -250,6 +250,15 @@
   </si>
   <si>
     <t>Flujo neto de efectivo (FNE)</t>
+  </si>
+  <si>
+    <t>como VAN &lt; 0 no conviene hacer el proyecto</t>
+  </si>
+  <si>
+    <t>como la TIR &lt;TMAR no conviene hacer el proyecto</t>
+  </si>
+  <si>
+    <t>como la RBC &lt;  1  no conviene hacer el proyecto</t>
   </si>
 </sst>
 </file>
@@ -786,7 +795,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -940,6 +949,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="29" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Millares 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1059,6 +1069,142 @@
         <a:xfrm>
           <a:off x="10239374" y="484188"/>
           <a:ext cx="2786063" cy="587375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>la amortizacion del inversion dieferida es valor de la inverison diferida entre la vida util del proyecto</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>515937</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectángulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD6E29FA-1D50-4637-B135-49AA8F9F8375}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="357188" y="5426075"/>
+          <a:ext cx="2339974" cy="1123949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>cuando hay activos fijos que no se despereciaron se le suma  el valor de rescate delos otros activos depresciados</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>87311</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>87313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>103188</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28C78114-9D92-4FC3-BDA3-0C93680C9591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10240961" y="487363"/>
+          <a:ext cx="2784476" cy="587375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1423,7 +1569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -2765,14 +2911,1302 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF319D4E-7423-409D-9284-FFCBB4C7EA1C}">
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="4"/>
+    <col min="3" max="3" width="4.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="4" customWidth="1"/>
+    <col min="10" max="11" width="13.42578125" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="81"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="D2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="55">
+        <v>0</v>
+      </c>
+      <c r="F2" s="55">
+        <v>1</v>
+      </c>
+      <c r="G2" s="55">
+        <v>2</v>
+      </c>
+      <c r="H2" s="55">
+        <v>3</v>
+      </c>
+      <c r="I2" s="55">
+        <v>4</v>
+      </c>
+      <c r="J2" s="56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="28">
+        <f>SUM(B4:B7)</f>
+        <v>200000</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31">
+        <f>B15</f>
+        <v>130000</v>
+      </c>
+      <c r="G3" s="31">
+        <f>F3*(1+$B$21)</f>
+        <v>145600</v>
+      </c>
+      <c r="H3" s="31">
+        <f t="shared" ref="H3:J3" si="0">G3*(1+$B$21)</f>
+        <v>163072.00000000003</v>
+      </c>
+      <c r="I3" s="31">
+        <f t="shared" si="0"/>
+        <v>182640.64000000004</v>
+      </c>
+      <c r="J3" s="31">
+        <f t="shared" si="0"/>
+        <v>204557.51680000007</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7">
+        <v>100000</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42">
+        <f>B17</f>
+        <v>15000</v>
+      </c>
+      <c r="G4" s="42">
+        <f>F4*(1+$B$23)</f>
+        <v>16800</v>
+      </c>
+      <c r="H4" s="42">
+        <f t="shared" ref="H4:J4" si="1">G4*(1+$B$23)</f>
+        <v>18816</v>
+      </c>
+      <c r="I4" s="42">
+        <f t="shared" si="1"/>
+        <v>21073.920000000002</v>
+      </c>
+      <c r="J4" s="42">
+        <f t="shared" si="1"/>
+        <v>23602.790400000005</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>70000</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16">
+        <f>$B$16</f>
+        <v>25000</v>
+      </c>
+      <c r="G5" s="16">
+        <f t="shared" ref="G5:J5" si="2">$B$16</f>
+        <v>25000</v>
+      </c>
+      <c r="H5" s="16">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="I5" s="16">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="J5" s="16">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>15000</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16">
+        <f>B18</f>
+        <v>10000</v>
+      </c>
+      <c r="G6" s="16">
+        <f>F6*(1+$B$24)</f>
+        <v>11500</v>
+      </c>
+      <c r="H6" s="16">
+        <f t="shared" ref="H6:J6" si="3">G6*(1+$B$24)</f>
+        <v>13224.999999999998</v>
+      </c>
+      <c r="I6" s="16">
+        <f t="shared" si="3"/>
+        <v>15208.749999999996</v>
+      </c>
+      <c r="J6" s="16">
+        <f t="shared" si="3"/>
+        <v>17490.062499999993</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>15000</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42">
+        <f>B19</f>
+        <v>12000</v>
+      </c>
+      <c r="G7" s="42">
+        <f>F7*(1+$B$22)</f>
+        <v>13799.999999999998</v>
+      </c>
+      <c r="H7" s="42">
+        <f t="shared" ref="H7:J7" si="4">G7*(1+$B$22)</f>
+        <v>15869.999999999996</v>
+      </c>
+      <c r="I7" s="42">
+        <f t="shared" si="4"/>
+        <v>18250.499999999993</v>
+      </c>
+      <c r="J7" s="42">
+        <f t="shared" si="4"/>
+        <v>20988.07499999999</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42">
+        <f>F39</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="42">
+        <f t="shared" ref="G8:J8" si="5">G39</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="D9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="42">
+        <f>F33</f>
+        <v>14000</v>
+      </c>
+      <c r="G9" s="42">
+        <f t="shared" ref="G9:J9" si="6">G33</f>
+        <v>14000</v>
+      </c>
+      <c r="H9" s="42">
+        <f t="shared" si="6"/>
+        <v>14000</v>
+      </c>
+      <c r="I9" s="42">
+        <f t="shared" si="6"/>
+        <v>14000</v>
+      </c>
+      <c r="J9" s="42">
+        <f t="shared" si="6"/>
+        <v>14000</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="21">
+        <f>$B$6/$B$25</f>
+        <v>3000</v>
+      </c>
+      <c r="G10" s="21">
+        <f t="shared" ref="G10:J10" si="7">$B$6/$B$25</f>
+        <v>3000</v>
+      </c>
+      <c r="H10" s="21">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="I10" s="21">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="J10" s="21">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="96"/>
+      <c r="F11" s="97">
+        <f>F3-F4-F5-F6-F7-F8-F9-F10</f>
+        <v>51000</v>
+      </c>
+      <c r="G11" s="97">
+        <f t="shared" ref="G11:J11" si="8">G3-G4-G5-G6-G7-G8-G9-G10</f>
+        <v>61500</v>
+      </c>
+      <c r="H11" s="97">
+        <f t="shared" si="8"/>
+        <v>73161.000000000029</v>
+      </c>
+      <c r="I11" s="97">
+        <f t="shared" si="8"/>
+        <v>86107.47000000003</v>
+      </c>
+      <c r="J11" s="97">
+        <f t="shared" si="8"/>
+        <v>100476.58890000009</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="8">
+        <v>5</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="62">
+        <f>F11*$B$26</f>
+        <v>15300</v>
+      </c>
+      <c r="G12" s="62">
+        <f t="shared" ref="G12:J12" si="9">G11*$B$26</f>
+        <v>18450</v>
+      </c>
+      <c r="H12" s="62">
+        <f t="shared" si="9"/>
+        <v>21948.300000000007</v>
+      </c>
+      <c r="I12" s="62">
+        <f t="shared" si="9"/>
+        <v>25832.241000000009</v>
+      </c>
+      <c r="J12" s="62">
+        <f t="shared" si="9"/>
+        <v>30142.976670000025</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99">
+        <f>F11-F12</f>
+        <v>35700</v>
+      </c>
+      <c r="G13" s="99">
+        <f t="shared" ref="G13:J13" si="10">G11-G12</f>
+        <v>43050</v>
+      </c>
+      <c r="H13" s="99">
+        <f t="shared" si="10"/>
+        <v>51212.700000000026</v>
+      </c>
+      <c r="I13" s="99">
+        <f t="shared" si="10"/>
+        <v>60275.229000000021</v>
+      </c>
+      <c r="J13" s="99">
+        <f t="shared" si="10"/>
+        <v>70333.612230000057</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="D14" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="62">
+        <f>F9</f>
+        <v>14000</v>
+      </c>
+      <c r="G14" s="62">
+        <f t="shared" ref="G14:J15" si="11">G9</f>
+        <v>14000</v>
+      </c>
+      <c r="H14" s="62">
+        <f t="shared" si="11"/>
+        <v>14000</v>
+      </c>
+      <c r="I14" s="62">
+        <f t="shared" si="11"/>
+        <v>14000</v>
+      </c>
+      <c r="J14" s="62">
+        <f t="shared" si="11"/>
+        <v>14000</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7">
+        <v>130000</v>
+      </c>
+      <c r="D15" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="88"/>
+      <c r="F15" s="33">
+        <f>F10</f>
+        <v>3000</v>
+      </c>
+      <c r="G15" s="33">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="H15" s="33">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="I15" s="33">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="J15" s="33">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7">
+        <v>25000</v>
+      </c>
+      <c r="D16" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="75">
+        <f>B4+B10</f>
+        <v>100000</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="7">
+        <v>15000</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17">
+        <f>B7</f>
+        <v>15000</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="15">
+        <f>E41</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="7">
+        <v>12000</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15">
+        <f>F38</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="15">
+        <f t="shared" ref="G19:J19" si="12">G38</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="D20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="34">
+        <f>B3</f>
+        <v>200000</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="D21" s="48"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="100">
+        <f>E13+E14+E15+E16+E17+E18-E19-E20</f>
+        <v>-200000</v>
+      </c>
+      <c r="F22" s="100">
+        <f t="shared" ref="F22:J22" si="13">F13+F14+F15+F16+F17+F18-F19-F20</f>
+        <v>52700</v>
+      </c>
+      <c r="G22" s="100">
+        <f t="shared" si="13"/>
+        <v>60050</v>
+      </c>
+      <c r="H22" s="100">
+        <f t="shared" si="13"/>
+        <v>68212.700000000026</v>
+      </c>
+      <c r="I22" s="100">
+        <f t="shared" si="13"/>
+        <v>77275.229000000021</v>
+      </c>
+      <c r="J22" s="100">
+        <f t="shared" si="13"/>
+        <v>202333.61223000006</v>
+      </c>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="52">
+        <f>E22</f>
+        <v>-200000</v>
+      </c>
+      <c r="F23" s="20">
+        <f>E23+F22</f>
+        <v>-147300</v>
+      </c>
+      <c r="G23" s="20">
+        <f t="shared" ref="G23:I23" si="14">F23+G22</f>
+        <v>-87250</v>
+      </c>
+      <c r="H23" s="20">
+        <f t="shared" si="14"/>
+        <v>-19037.299999999974</v>
+      </c>
+      <c r="I23" s="20">
+        <f t="shared" si="14"/>
+        <v>58237.929000000047</v>
+      </c>
+      <c r="J23" s="76"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="11">
+        <v>5</v>
+      </c>
+      <c r="D25" s="45"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="D26" s="102" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="103">
+        <f>NPV(G46,F22:J22)+E22</f>
+        <v>-1976.0660995962098</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D27" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="105">
+        <f>IRR(E22:J22)</f>
+        <v>0.2759624194048762</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D28" s="106" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="113">
+        <f>E51/E52</f>
+        <v>0.99541736038990269</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D32" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="55">
+        <v>0</v>
+      </c>
+      <c r="F32" s="55">
+        <v>1</v>
+      </c>
+      <c r="G32" s="55">
+        <v>2</v>
+      </c>
+      <c r="H32" s="55">
+        <v>3</v>
+      </c>
+      <c r="I32" s="55">
+        <v>4</v>
+      </c>
+      <c r="J32" s="56">
+        <v>5</v>
+      </c>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D33" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="3">
+        <f>SLN($B$5,$B$10,$B$8)</f>
+        <v>14000</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" ref="G33:J33" si="15">SLN($B$5,$B$10,$B$8)</f>
+        <v>14000</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="15"/>
+        <v>14000</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="15"/>
+        <v>14000</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" si="15"/>
+        <v>14000</v>
+      </c>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="36">
+        <f>B5</f>
+        <v>70000</v>
+      </c>
+      <c r="F34" s="37">
+        <f>E34-F33</f>
+        <v>56000</v>
+      </c>
+      <c r="G34" s="37">
+        <f t="shared" ref="G34:J34" si="16">F34-G33</f>
+        <v>42000</v>
+      </c>
+      <c r="H34" s="37">
+        <f t="shared" si="16"/>
+        <v>28000</v>
+      </c>
+      <c r="I34" s="37">
+        <f t="shared" si="16"/>
+        <v>14000</v>
+      </c>
+      <c r="J34" s="91">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="69">
+        <v>0</v>
+      </c>
+      <c r="F37" s="69">
+        <v>1</v>
+      </c>
+      <c r="G37" s="69">
+        <v>2</v>
+      </c>
+      <c r="H37" s="69">
+        <v>3</v>
+      </c>
+      <c r="I37" s="69">
+        <v>4</v>
+      </c>
+      <c r="J37" s="70">
+        <v>5</v>
+      </c>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D38" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92">
+        <f>$E$41/$B$12</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="92">
+        <f t="shared" ref="G38:J38" si="17">$E$41/$B$12</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="92">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="92">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="92">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D39" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93">
+        <f>E41*$B$13</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="93">
+        <f t="shared" ref="G39:J39" si="18">F41*$B$13</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="93">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="93">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="93">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D40" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93">
+        <f>F38+F39</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="93">
+        <f t="shared" ref="G40:J40" si="19">G38+G39</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="94">
+        <f>B3*B11</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="94">
+        <f>E41-F38</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="94">
+        <f t="shared" ref="G41:J41" si="20">F41-G38</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="94">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="94">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="95">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D43" s="38"/>
+      <c r="E43" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D44" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="43">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="43">
+        <f>B13</f>
+        <v>0.26</v>
+      </c>
+      <c r="G44" s="50">
+        <f>E44*F44</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D45" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="43">
+        <f>E46-E44</f>
+        <v>1</v>
+      </c>
+      <c r="F45" s="43">
+        <f>B27</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G45" s="50">
+        <f>E45*F45</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="44">
+        <v>1</v>
+      </c>
+      <c r="F46" s="44"/>
+      <c r="G46" s="101">
+        <f>SUM(G44:G45)</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="26"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="64">
+        <v>0</v>
+      </c>
+      <c r="F48" s="65">
+        <v>1</v>
+      </c>
+      <c r="G48" s="65">
+        <v>2</v>
+      </c>
+      <c r="H48" s="65">
+        <v>3</v>
+      </c>
+      <c r="I48" s="65">
+        <v>4</v>
+      </c>
+      <c r="J48" s="66">
+        <v>5</v>
+      </c>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D49" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="72">
+        <f>E3+E16+E17+E18</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="72">
+        <f t="shared" ref="F49:J49" si="21">F3+F16+F17+F18</f>
+        <v>130000</v>
+      </c>
+      <c r="G49" s="72">
+        <f t="shared" si="21"/>
+        <v>145600</v>
+      </c>
+      <c r="H49" s="72">
+        <f t="shared" si="21"/>
+        <v>163072.00000000003</v>
+      </c>
+      <c r="I49" s="72">
+        <f t="shared" si="21"/>
+        <v>182640.64000000004</v>
+      </c>
+      <c r="J49" s="72">
+        <f>J3+J16+J17+J18</f>
+        <v>319557.5168000001</v>
+      </c>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="73">
+        <f>E4+E5+E6+E7+E12+E19+E20+E8</f>
+        <v>200000</v>
+      </c>
+      <c r="F50" s="73">
+        <f t="shared" ref="F50:J50" si="22">F4+F5+F6+F7+F12+F19+F20+F8</f>
+        <v>77300</v>
+      </c>
+      <c r="G50" s="73">
+        <f t="shared" si="22"/>
+        <v>85550</v>
+      </c>
+      <c r="H50" s="73">
+        <f t="shared" si="22"/>
+        <v>94859.3</v>
+      </c>
+      <c r="I50" s="73">
+        <f t="shared" si="22"/>
+        <v>105365.41099999999</v>
+      </c>
+      <c r="J50" s="73">
+        <f t="shared" si="22"/>
+        <v>117223.90457000001</v>
+      </c>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D51" s="110" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="111">
+        <f>NPV($G$46,F49:J49)+E49</f>
+        <v>429230.89489340782</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D52" s="112" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="111">
+        <f>NPV($G$46,F50:J50)+E50</f>
+        <v>431206.96099300403</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D36:J36"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
